--- a/Demo Data.xlsx
+++ b/Demo Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craig/Documents/Github/Tableau-Extension-ImageViewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C76403A-C831-284A-9789-724F4CB9D676}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C155E36-5483-F147-8A52-451256674547}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15000" yWindow="4020" windowWidth="28040" windowHeight="17440" xr2:uid="{1672E745-4867-9349-B4A5-A53BBEAFEC0B}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +67,12 @@
   </si>
   <si>
     <t>https://www.theinformationlab.co.uk/wp-content/uploads/2016/01/Emma-Whyte-300-x-300.jpg</t>
+  </si>
+  <si>
+    <t>Gif</t>
+  </si>
+  <si>
+    <t>https://www.theinformationlab.co.uk/wp-content/uploads/2018/04/2018-04-13_16-59-18.gif</t>
   </si>
 </sst>
 </file>
@@ -430,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BC79AE-7100-AD4B-9E0A-CA78089208AB}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,6 +495,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
